--- a/dev/notebook/t_part-2025-01-19.xlsx
+++ b/dev/notebook/t_part-2025-01-19.xlsx
@@ -1619,7 +1619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1630,6 +1630,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1667,7 +1673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1684,6 +1690,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,11 +1707,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFAFD095"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1787,11 +1808,11 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
-      <selection pane="bottomRight" activeCell="H93" activeCellId="0" sqref="H93:J93"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4099,23 +4120,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+    <row r="107" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="5" t="n">
         <v>0</v>
       </c>
     </row>
